--- a/plans.xlsx
+++ b/plans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Plans</t>
   </si>
@@ -52,12 +52,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Snapshot to Sunndeep</t>
-  </si>
-  <si>
-    <t>md-tab issue</t>
-  </si>
-  <si>
     <t>defects</t>
   </si>
   <si>
@@ -67,14 +61,35 @@
     <t>do mapping-&gt; cosole error occurs</t>
   </si>
   <si>
-    <t>First time login no right templete</t>
+    <t>Submit snapshot to Sundeep</t>
+  </si>
+  <si>
+    <t>currency pop up title and disable</t>
+  </si>
+  <si>
+    <t>FFG</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>BIV</t>
+  </si>
+  <si>
+    <t>Install Eclipse</t>
+  </si>
+  <si>
+    <t>Install Maven</t>
+  </si>
+  <si>
+    <t>Install Tomcat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,16 +97,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -115,40 +160,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -192,48 +209,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,258 +575,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="10" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="11" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="4">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="3">
         <v>20170411</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="3">
         <v>20170412</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="3">
         <v>20170413</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="3">
         <v>20170414</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="3">
         <v>20170415</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="3">
         <v>20170416</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="3">
         <v>20170417</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="3">
         <v>20170418</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2" t="s">
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2" t="s">
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12">
-        <v>4</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="F8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
-        <v>4</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="11" t="s">
+      <c r="F11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
+  <mergeCells count="9">
+    <mergeCell ref="A3:A12"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plans.xlsx
+++ b/plans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Plans</t>
   </si>
@@ -83,13 +83,22 @@
   </si>
   <si>
     <t>Install Tomcat</t>
+  </si>
+  <si>
+    <t>restore left side refresh issue</t>
+  </si>
+  <si>
+    <t>Piwik add in piwik web</t>
+  </si>
+  <si>
+    <t>only admin can go mapping page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +112,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,30 +138,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -160,8 +191,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -175,18 +210,107 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </right>
       <top/>
       <bottom/>
@@ -194,12 +318,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -209,68 +346,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,309 +727,845 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:R144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30:X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" style="26"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="11" width="10" style="1" customWidth="1"/>
+    <col min="4" max="7" width="10" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="10" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="3">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4">
         <v>20170411</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>20170412</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>20170413</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>20170414</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>20170415</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>20170416</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>20170417</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>20170418</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="L2" s="4">
+        <v>20170419</v>
+      </c>
+      <c r="M2" s="4">
+        <v>20170420</v>
+      </c>
+      <c r="N2" s="4">
+        <v>20170421</v>
+      </c>
+      <c r="O2" s="4">
+        <v>20170422</v>
+      </c>
+      <c r="P2" s="4">
+        <v>20170423</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>20170424</v>
+      </c>
+      <c r="R2" s="4">
+        <v>20170425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
+      <c r="C3" s="12"/>
+      <c r="D3" s="13">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="19" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+    </row>
+    <row r="4" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="11">
         <v>4</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="11">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="7" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="11">
         <v>4</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="11">
         <v>4</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="11">
         <v>3</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="11">
         <v>4</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="11">
         <v>4</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="7" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="7" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="11">
         <v>4</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="11">
         <v>4</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="11">
         <v>4</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="7" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+    </row>
+    <row r="8" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="11">
         <v>4</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="8" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+    </row>
+    <row r="9" spans="1:18" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="11" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="20" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
         <v>2</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="7" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+    </row>
+    <row r="11" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11">
         <v>2</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="7" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+    </row>
+    <row r="12" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+    </row>
+    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11">
+        <v>2</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+    </row>
+    <row r="14" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="10" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="34"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+    </row>
+    <row r="15" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="M15" s="34"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="M16" s="34"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+    </row>
+    <row r="17" spans="1:16" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="M17" s="34"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+    </row>
+    <row r="18" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
+      <c r="B18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="11">
+        <v>12</v>
+      </c>
+      <c r="K18" s="11">
+        <v>12</v>
+      </c>
+      <c r="M18" s="34"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="23"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="23"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="23"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="23"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="23"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="23"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="23"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="23"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="23"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="23"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="23"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="23"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="23"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="23"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="23"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="23"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="23"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="23"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="23"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="23"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="23"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="23"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="23"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="23"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="23"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="23"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="23"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="23"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="23"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="23"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="23"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="23"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="23"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="23"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="23"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="23"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="23"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="23"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="23"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="23"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="23"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="23"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="23"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="23"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="23"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="23"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="23"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="23"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="23"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="23"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="23"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="23"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="23"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="23"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="23"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="23"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="22"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="24"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="23"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="23"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="23"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="25"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="25"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="23"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="23"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="23"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="23"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="23"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="23"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="23"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="23"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="23"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="23"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="23"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="23"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="23"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="23"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="23"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="23"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="23"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="24"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="23"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="24"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="23"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="23"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="23"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="23"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="23"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="23"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="23"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="23"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="23"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A3:A14"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="D1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/plans.xlsx
+++ b/plans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Plans</t>
   </si>
@@ -359,18 +359,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,40 +377,52 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,12 +730,12 @@
   <dimension ref="A1:R144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30:X31"/>
+      <selection activeCell="D2" sqref="D1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="8.88671875" style="20"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="7" width="10" style="1" hidden="1" customWidth="1"/>
@@ -746,36 +746,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="4">
         <v>20170411</v>
       </c>
@@ -822,750 +822,750 @@
         <v>20170425</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-    </row>
-    <row r="4" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="18" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+    </row>
+    <row r="4" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="7">
         <v>4</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-    </row>
-    <row r="5" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="10" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <v>4</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>4</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="7">
         <v>3</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-    </row>
-    <row r="6" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="18" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>4</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <v>4</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-    </row>
-    <row r="7" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="10" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+    </row>
+    <row r="7" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="7">
         <v>4</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <v>4</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="7">
         <v>4</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-    </row>
-    <row r="8" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="19" t="s">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+    </row>
+    <row r="8" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <v>4</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-    </row>
-    <row r="9" spans="1:18" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="20" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="1:18" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-    </row>
-    <row r="10" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="21" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+    </row>
+    <row r="10" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
         <v>2</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-    </row>
-    <row r="11" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="10" t="s">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
         <v>2</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-    </row>
-    <row r="12" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="10" t="s">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+    </row>
+    <row r="12" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-    </row>
-    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="10" t="s">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+    </row>
+    <row r="13" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11">
-        <v>2</v>
-      </c>
-      <c r="M13" s="34"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-    </row>
-    <row r="14" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="10" t="s">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="22"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+    </row>
+    <row r="14" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="M14" s="34"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-    </row>
-    <row r="15" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="M14" s="22"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+    </row>
+    <row r="15" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
         <v>1</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="M15" s="34"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-    </row>
-    <row r="16" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="10" t="s">
+      <c r="K15" s="7"/>
+      <c r="M15" s="22"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
         <v>1</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="M16" s="34"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-    </row>
-    <row r="17" spans="1:16" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="10" t="s">
+      <c r="K16" s="7"/>
+      <c r="M16" s="22"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+    </row>
+    <row r="17" spans="1:16" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
         <v>1</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="M17" s="34"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-    </row>
-    <row r="18" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="11" t="s">
+      <c r="K17" s="7"/>
+      <c r="M17" s="22"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+    </row>
+    <row r="18" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="11">
+      <c r="J18" s="7">
         <v>12</v>
       </c>
-      <c r="K18" s="11">
-        <v>12</v>
-      </c>
-      <c r="M18" s="34"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="22"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
+      <c r="A19" s="16"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="17"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="17"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="18"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="17"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="17"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="17"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="17"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="17"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="17"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="17"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="17"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="17"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="17"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="17"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="17"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="17"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="17"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="17"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="17"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="17"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="17"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="17"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="17"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="17"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="17"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="17"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="17"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="17"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="17"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="17"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="17"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="17"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="17"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="17"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="17"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="17"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="17"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="17"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
+      <c r="A58" s="17"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="17"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="17"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
+      <c r="A61" s="17"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="17"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="17"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
+      <c r="A64" s="17"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="17"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
+      <c r="A66" s="17"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
+      <c r="A67" s="17"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="17"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
+      <c r="A69" s="17"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
+      <c r="A70" s="17"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
+      <c r="A71" s="17"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
+      <c r="A72" s="17"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
+      <c r="A73" s="17"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
+      <c r="A74" s="17"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
+      <c r="A75" s="17"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
+      <c r="A76" s="17"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
+      <c r="A77" s="17"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
+      <c r="A78" s="17"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="23"/>
+      <c r="A79" s="17"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="23"/>
+      <c r="A80" s="17"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="23"/>
+      <c r="A81" s="17"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="23"/>
+      <c r="A82" s="17"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="23"/>
+      <c r="A83" s="17"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="23"/>
+      <c r="A84" s="17"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="23"/>
+      <c r="A85" s="17"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="23"/>
+      <c r="A86" s="17"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="23"/>
+      <c r="A87" s="17"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="23"/>
+      <c r="A88" s="17"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="23"/>
+      <c r="A89" s="17"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="23"/>
+      <c r="A90" s="17"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="23"/>
+      <c r="A91" s="17"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="23"/>
+      <c r="A92" s="17"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="23"/>
+      <c r="A93" s="17"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="23"/>
+      <c r="A94" s="17"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="23"/>
+      <c r="A95" s="17"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="23"/>
+      <c r="A96" s="17"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="23"/>
+      <c r="A97" s="17"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="23"/>
+      <c r="A98" s="17"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="23"/>
+      <c r="A99" s="17"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="23"/>
+      <c r="A100" s="17"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="23"/>
+      <c r="A101" s="17"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="23"/>
+      <c r="A102" s="17"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="23"/>
+      <c r="A103" s="17"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="23"/>
+      <c r="A104" s="17"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="23"/>
+      <c r="A105" s="17"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="23"/>
+      <c r="A106" s="17"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="23"/>
+      <c r="A107" s="17"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="22"/>
+      <c r="A108" s="16"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="24"/>
+      <c r="A109" s="18"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="23"/>
+      <c r="A110" s="17"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="23"/>
+      <c r="A111" s="17"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="23"/>
+      <c r="A112" s="17"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="25"/>
+      <c r="A113" s="19"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="25"/>
+      <c r="A114" s="19"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="23"/>
+      <c r="A115" s="17"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="23"/>
+      <c r="A116" s="17"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="23"/>
+      <c r="A117" s="17"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="23"/>
+      <c r="A118" s="17"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="23"/>
+      <c r="A119" s="17"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="23"/>
+      <c r="A120" s="17"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="23"/>
+      <c r="A121" s="17"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="23"/>
+      <c r="A122" s="17"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="23"/>
+      <c r="A123" s="17"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="23"/>
+      <c r="A124" s="17"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="23"/>
+      <c r="A125" s="17"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="23"/>
+      <c r="A126" s="17"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="23"/>
+      <c r="A127" s="17"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="23"/>
+      <c r="A128" s="17"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="23"/>
+      <c r="A129" s="17"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="23"/>
+      <c r="A130" s="17"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="23"/>
+      <c r="A131" s="17"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="24"/>
+      <c r="A132" s="18"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="23"/>
+      <c r="A133" s="17"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="24"/>
+      <c r="A134" s="18"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="23"/>
+      <c r="A135" s="17"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="23"/>
+      <c r="A136" s="17"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="23"/>
+      <c r="A137" s="17"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="23"/>
+      <c r="A138" s="17"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="23"/>
+      <c r="A139" s="17"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="23"/>
+      <c r="A140" s="17"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="23"/>
+      <c r="A141" s="17"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="23"/>
+      <c r="A142" s="17"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="23"/>
+      <c r="A143" s="17"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="24"/>
+      <c r="A144" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="D1:Q1"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="D1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/plans.xlsx
+++ b/plans.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FFG" sheetId="1" r:id="rId1"/>
+    <sheet name="BIV" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Plans</t>
   </si>
@@ -67,9 +68,6 @@
     <t>currency pop up title and disable</t>
   </si>
   <si>
-    <t>FFG</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -92,6 +90,57 @@
   </si>
   <si>
     <t>only admin can go mapping page</t>
+  </si>
+  <si>
+    <t>collapration modle issue</t>
+  </si>
+  <si>
+    <t>Pop up step three</t>
+  </si>
+  <si>
+    <t>Check with Emon for the 2 tabs issue</t>
+  </si>
+  <si>
+    <t>Delete cookie issue search</t>
+  </si>
+  <si>
+    <t>common pop up add</t>
+  </si>
+  <si>
+    <t>Add user</t>
+  </si>
+  <si>
+    <t>Real time hide&amp;mapping confilict</t>
+  </si>
+  <si>
+    <t>User can only edit one item at one time</t>
+  </si>
+  <si>
+    <t>UI change</t>
+  </si>
+  <si>
+    <t>Sprint3</t>
+  </si>
+  <si>
+    <t>Sprint4</t>
+  </si>
+  <si>
+    <t>Gear - Load Data File (Project Admin)</t>
+  </si>
+  <si>
+    <t>UI - Return link</t>
+  </si>
+  <si>
+    <t>UI - Piwik</t>
+  </si>
+  <si>
+    <t>Defects</t>
+  </si>
+  <si>
+    <t>Piwik for UAT and QA</t>
+  </si>
+  <si>
+    <t>Add email no received email issue</t>
   </si>
 </sst>
 </file>
@@ -129,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +215,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -342,11 +409,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,10 +461,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -385,8 +468,71 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,29 +545,41 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,55 +885,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R144"/>
+  <dimension ref="A1:AA145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:J1048576"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="8.88671875" style="18"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="7" width="10" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="10" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="15" max="16" width="8.88671875" style="5"/>
+    <col min="10" max="11" width="10" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="25" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="22" max="24" width="8.88671875" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="46"/>
+    </row>
+    <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="4">
         <v>20170411</v>
       </c>
@@ -800,10 +975,10 @@
       <c r="K2" s="4">
         <v>20170418</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="21">
         <v>20170419</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="22">
         <v>20170420</v>
       </c>
       <c r="N2" s="4">
@@ -821,15 +996,42 @@
       <c r="R2" s="4">
         <v>20170425</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="S2" s="3">
+        <v>20170426</v>
+      </c>
+      <c r="T2" s="4">
+        <v>20170427</v>
+      </c>
+      <c r="U2" s="3">
+        <v>20170428</v>
+      </c>
+      <c r="V2" s="61">
+        <v>20170429</v>
+      </c>
+      <c r="W2" s="59">
+        <v>20170430</v>
+      </c>
+      <c r="X2" s="59">
+        <v>20170501</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>20170502</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>20170503</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>20170504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="9">
         <v>4</v>
       </c>
@@ -842,15 +1044,20 @@
       <c r="I3" s="2"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-    </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="31" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48"/>
+      <c r="B4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="32" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="7">
@@ -867,13 +1074,18 @@
       <c r="I4" s="2"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-    </row>
-    <row r="5" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="6" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="7">
@@ -892,15 +1104,20 @@
       <c r="I5" s="2"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="31" t="s">
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48"/>
+      <c r="B6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="7">
@@ -917,13 +1134,18 @@
       <c r="I6" s="2"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="6" t="s">
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="7">
@@ -942,14 +1164,20 @@
       <c r="I7" s="2"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-    </row>
-    <row r="8" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="14" t="s">
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="29" t="s">
         <v>3</v>
       </c>
+      <c r="C8" s="32"/>
       <c r="D8" s="7">
         <v>4</v>
       </c>
@@ -964,14 +1192,20 @@
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-    </row>
-    <row r="9" spans="1:18" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="15" t="s">
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+    </row>
+    <row r="9" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="48"/>
+      <c r="B9" s="28" t="s">
         <v>15</v>
       </c>
+      <c r="C9" s="33"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
@@ -982,98 +1216,136 @@
       <c r="I9" s="2"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-    </row>
-    <row r="10" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+    </row>
+    <row r="10" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48"/>
+      <c r="B10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-    </row>
-    <row r="11" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="24">
+        <v>8</v>
+      </c>
+      <c r="M10" s="24">
+        <v>8</v>
+      </c>
+      <c r="N10" s="12">
+        <v>8</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="12">
+        <v>8</v>
+      </c>
+      <c r="R10" s="12">
+        <v>8</v>
+      </c>
+      <c r="S10" s="12">
+        <v>8</v>
+      </c>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+    </row>
+    <row r="11" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="48"/>
+      <c r="B11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-    </row>
-    <row r="12" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="24">
+        <v>3</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="48"/>
+      <c r="B12" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-    </row>
-    <row r="13" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="48"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="22"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-    </row>
-    <row r="14" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
+      <c r="K13" s="7"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1085,79 +1357,110 @@
       <c r="I14" s="2"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="M14" s="22"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-    </row>
-    <row r="15" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>20</v>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="48"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="M15" s="22"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-    </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="6" t="s">
-        <v>21</v>
+      <c r="M15" s="27"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="48"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="23">
+        <v>2</v>
+      </c>
+      <c r="M16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="M16" s="22"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-    </row>
-    <row r="17" spans="1:16" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="6" t="s">
-        <v>22</v>
+      <c r="N16" s="20"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+    </row>
+    <row r="17" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="48"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="M17" s="22"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-    </row>
-    <row r="18" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="7" t="s">
-        <v>24</v>
+      <c r="L17" s="23">
+        <v>8</v>
+      </c>
+      <c r="M17" s="27">
+        <v>8</v>
+      </c>
+      <c r="N17" s="34">
+        <v>8</v>
+      </c>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="7">
+        <v>8</v>
+      </c>
+      <c r="R17" s="7">
+        <v>8</v>
+      </c>
+      <c r="S17" s="7">
+        <v>8</v>
+      </c>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+    </row>
+    <row r="18" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="48"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1165,409 +1468,1252 @@
       <c r="G18" s="7"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="7">
-        <v>12</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="7">
+        <v>4</v>
+      </c>
+      <c r="R18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="22"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+    </row>
+    <row r="19" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="27">
+        <v>8</v>
+      </c>
+      <c r="N19" s="34">
+        <v>8</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="7">
+        <v>8</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+    </row>
+    <row r="20" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="48"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="23"/>
+      <c r="M20" s="27"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+    </row>
+    <row r="21" spans="1:24" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="49"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="36"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+    </row>
+    <row r="22" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="R22" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+    </row>
+    <row r="23" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43"/>
+      <c r="B23" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="R23" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+    </row>
+    <row r="24" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43"/>
+      <c r="B24" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="R24" s="41">
+        <v>18</v>
+      </c>
+      <c r="S24" s="41">
+        <v>18</v>
+      </c>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
+      <c r="A33" s="15"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
+      <c r="A34" s="15"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
+      <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
+      <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
+      <c r="A37" s="15"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
+      <c r="A38" s="15"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
+      <c r="A39" s="15"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
+      <c r="A40" s="15"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
+      <c r="A41" s="15"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
+      <c r="A42" s="15"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
+      <c r="A43" s="15"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
+      <c r="A44" s="15"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
+      <c r="A45" s="15"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
+      <c r="A46" s="15"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
+      <c r="A47" s="15"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
+      <c r="A48" s="15"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
+      <c r="A49" s="15"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
+      <c r="A50" s="15"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
+      <c r="A51" s="15"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
+      <c r="A52" s="15"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
+      <c r="A53" s="15"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
+      <c r="A54" s="15"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
+      <c r="A55" s="15"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
+      <c r="A56" s="15"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
+      <c r="A57" s="15"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
+      <c r="A58" s="15"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
+      <c r="A59" s="15"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
+      <c r="A60" s="15"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
+      <c r="A61" s="15"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
+      <c r="A62" s="15"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
+      <c r="A63" s="15"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
+      <c r="A64" s="15"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
+      <c r="A65" s="15"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
+      <c r="A66" s="15"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
+      <c r="A67" s="15"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
+      <c r="A68" s="15"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
+      <c r="A69" s="15"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
+      <c r="A70" s="15"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
+      <c r="A71" s="15"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
+      <c r="A72" s="15"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
+      <c r="A73" s="15"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
+      <c r="A74" s="15"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
+      <c r="A75" s="15"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
+      <c r="A76" s="15"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
+      <c r="A77" s="15"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
+      <c r="A78" s="15"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
+      <c r="A79" s="15"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="17"/>
+      <c r="A80" s="15"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
+      <c r="A81" s="15"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="17"/>
+      <c r="A82" s="15"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="17"/>
+      <c r="A83" s="15"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="17"/>
+      <c r="A84" s="15"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="17"/>
+      <c r="A85" s="15"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="17"/>
+      <c r="A86" s="15"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
+      <c r="A87" s="15"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="17"/>
+      <c r="A88" s="15"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="17"/>
+      <c r="A89" s="15"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="17"/>
+      <c r="A90" s="15"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="17"/>
+      <c r="A91" s="15"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="17"/>
+      <c r="A92" s="15"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="17"/>
+      <c r="A93" s="15"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="17"/>
+      <c r="A94" s="15"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="17"/>
+      <c r="A95" s="15"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="17"/>
+      <c r="A96" s="15"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="17"/>
+      <c r="A97" s="15"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="17"/>
+      <c r="A98" s="15"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="17"/>
+      <c r="A99" s="15"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="17"/>
+      <c r="A100" s="15"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="17"/>
+      <c r="A101" s="15"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="17"/>
+      <c r="A102" s="15"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="17"/>
+      <c r="A103" s="15"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="17"/>
+      <c r="A104" s="15"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="17"/>
+      <c r="A105" s="15"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="17"/>
+      <c r="A106" s="15"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="17"/>
+      <c r="A107" s="15"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="16"/>
+      <c r="A108" s="15"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="18"/>
+      <c r="A109" s="14"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="17"/>
+      <c r="A110" s="16"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="17"/>
+      <c r="A111" s="15"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="17"/>
+      <c r="A112" s="15"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="19"/>
+      <c r="A113" s="15"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="19"/>
+      <c r="A114" s="17"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="17"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="17"/>
+      <c r="A116" s="15"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="17"/>
+      <c r="A117" s="15"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="17"/>
+      <c r="A118" s="15"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="17"/>
+      <c r="A119" s="15"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="17"/>
+      <c r="A120" s="15"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="17"/>
+      <c r="A121" s="15"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="17"/>
+      <c r="A122" s="15"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="17"/>
+      <c r="A123" s="15"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="17"/>
+      <c r="A124" s="15"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="17"/>
+      <c r="A125" s="15"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="17"/>
+      <c r="A126" s="15"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="17"/>
+      <c r="A127" s="15"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="17"/>
+      <c r="A128" s="15"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="17"/>
+      <c r="A129" s="15"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="17"/>
+      <c r="A130" s="15"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="17"/>
+      <c r="A131" s="15"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="18"/>
+      <c r="A132" s="15"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="17"/>
+      <c r="A133" s="16"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="18"/>
+      <c r="A134" s="15"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="17"/>
+      <c r="A135" s="16"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="17"/>
+      <c r="A136" s="15"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="17"/>
+      <c r="A137" s="15"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="17"/>
+      <c r="A138" s="15"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="17"/>
+      <c r="A139" s="15"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="17"/>
+      <c r="A140" s="15"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="17"/>
+      <c r="A141" s="15"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="17"/>
+      <c r="A142" s="15"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="17"/>
+      <c r="A143" s="15"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="18"/>
+      <c r="A144" s="15"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B10:B14"/>
+  <mergeCells count="10">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="R1:AA1"/>
     <mergeCell ref="D1:Q1"/>
-    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A3:A21"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A15:A18"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B12:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S135"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="18"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="7" width="10" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="10" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="10" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="25" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="46"/>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="4">
+        <v>20170411</v>
+      </c>
+      <c r="E2" s="4">
+        <v>20170412</v>
+      </c>
+      <c r="F2" s="4">
+        <v>20170413</v>
+      </c>
+      <c r="G2" s="4">
+        <v>20170414</v>
+      </c>
+      <c r="H2" s="4">
+        <v>20170415</v>
+      </c>
+      <c r="I2" s="4">
+        <v>20170416</v>
+      </c>
+      <c r="J2" s="4">
+        <v>20170417</v>
+      </c>
+      <c r="K2" s="4">
+        <v>20170418</v>
+      </c>
+      <c r="L2" s="26">
+        <v>20170419</v>
+      </c>
+      <c r="M2" s="26">
+        <v>20170420</v>
+      </c>
+      <c r="N2" s="4">
+        <v>20170421</v>
+      </c>
+      <c r="O2" s="4">
+        <v>20170422</v>
+      </c>
+      <c r="P2" s="4">
+        <v>20170423</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>20170424</v>
+      </c>
+      <c r="R2" s="4">
+        <v>20170425</v>
+      </c>
+      <c r="S2" s="3">
+        <v>20170426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="27"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="27"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
+      <c r="B5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="27"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54"/>
+      <c r="B6" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="34">
+        <v>12</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="36"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="R7" s="35">
+        <v>4</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23">
+        <v>12</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+    </row>
+    <row r="10" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="66"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+    </row>
+    <row r="11" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="15"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="15"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="15"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="15"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="15"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="15"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="15"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="15"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="15"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="15"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="15"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="15"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="15"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="15"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="15"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="15"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="15"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="15"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="15"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="15"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="15"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="15"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="15"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="15"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="15"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="15"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="15"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="15"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="15"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="15"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="15"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="15"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="15"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="15"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="15"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="14"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="16"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="15"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="15"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="15"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="17"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="17"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="15"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="15"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="15"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="15"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="15"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="15"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="15"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="15"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="15"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="15"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="15"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="15"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="15"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="15"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="15"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="15"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="15"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="16"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="15"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="16"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="15"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="15"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="15"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="15"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="15"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="15"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="15"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="15"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="15"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D1:Q1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plans.xlsx
+++ b/plans.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="FFG" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -521,42 +521,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -566,20 +530,62 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,9 +893,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C26" sqref="C26"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,53 +910,53 @@
     <col min="14" max="14" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="8.88671875" style="5" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="24" width="8.88671875" style="60"/>
+    <col min="18" max="21" width="0" hidden="1" customWidth="1"/>
+    <col min="22" max="24" width="0" style="48" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="44" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="46"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="54"/>
     </row>
     <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="4">
         <v>20170411</v>
       </c>
@@ -1005,13 +1011,13 @@
       <c r="U2" s="3">
         <v>20170428</v>
       </c>
-      <c r="V2" s="61">
+      <c r="V2" s="49">
         <v>20170429</v>
       </c>
-      <c r="W2" s="59">
+      <c r="W2" s="47">
         <v>20170430</v>
       </c>
-      <c r="X2" s="59">
+      <c r="X2" s="47">
         <v>20170501</v>
       </c>
       <c r="Y2" s="3">
@@ -1025,7 +1031,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="55" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -1048,13 +1054,13 @@
       <c r="M3" s="8"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
     </row>
     <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="59" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -1078,13 +1084,13 @@
       <c r="M4" s="23"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
     </row>
     <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="32" t="s">
         <v>6</v>
       </c>
@@ -1108,13 +1114,13 @@
       <c r="M5" s="23"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
     </row>
     <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="59" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -1138,13 +1144,13 @@
       <c r="M6" s="23"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
     </row>
     <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
@@ -1168,12 +1174,12 @@
       <c r="M7" s="23"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
     </row>
     <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="29" t="s">
         <v>3</v>
       </c>
@@ -1196,12 +1202,12 @@
       <c r="M8" s="23"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
     </row>
     <row r="9" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="28" t="s">
         <v>15</v>
       </c>
@@ -1220,12 +1226,12 @@
       <c r="M9" s="24"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
     </row>
     <row r="10" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1257,12 +1263,21 @@
       <c r="S10" s="12">
         <v>8</v>
       </c>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
+      <c r="T10" s="12">
+        <v>8</v>
+      </c>
+      <c r="U10" s="12">
+        <v>8</v>
+      </c>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="12">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="28" t="s">
         <v>29</v>
       </c>
@@ -1283,13 +1298,13 @@
       </c>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
     </row>
     <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="60" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="32" t="s">
@@ -1311,13 +1326,13 @@
       <c r="M12" s="23"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
     </row>
     <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="32" t="s">
         <v>14</v>
       </c>
@@ -1337,13 +1352,13 @@
       <c r="M13" s="23"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
     </row>
     <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="32" t="s">
         <v>22</v>
       </c>
@@ -1362,13 +1377,13 @@
       <c r="N14" s="20"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
     </row>
     <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="32" t="s">
         <v>25</v>
       </c>
@@ -1387,13 +1402,13 @@
       <c r="N15" s="20"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
     </row>
     <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="32" t="s">
         <v>27</v>
       </c>
@@ -1414,13 +1429,13 @@
       <c r="N16" s="20"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-    </row>
-    <row r="17" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
-      <c r="B17" s="52"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+    </row>
+    <row r="17" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="56"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1452,13 +1467,22 @@
       <c r="S17" s="7">
         <v>8</v>
       </c>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-    </row>
-    <row r="18" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="52"/>
+      <c r="T17" s="7">
+        <v>8</v>
+      </c>
+      <c r="U17" s="7">
+        <v>8</v>
+      </c>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="56"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="32" t="s">
         <v>32</v>
       </c>
@@ -1481,13 +1505,13 @@
       <c r="R18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-    </row>
-    <row r="19" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="52"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+    </row>
+    <row r="19" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="56"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="32" t="s">
         <v>31</v>
       </c>
@@ -1514,13 +1538,13 @@
       <c r="R19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-    </row>
-    <row r="20" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="52"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+    </row>
+    <row r="20" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="56"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="32" t="s">
         <v>24</v>
       </c>
@@ -1538,13 +1562,13 @@
       <c r="M20" s="27"/>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-    </row>
-    <row r="21" spans="1:24" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="52"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+    </row>
+    <row r="21" spans="1:25" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="57"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="38" t="s">
         <v>16</v>
       </c>
@@ -1562,12 +1586,12 @@
       <c r="M21" s="36"/>
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="58"/>
-    </row>
-    <row r="22" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+    </row>
+    <row r="22" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -1589,12 +1613,12 @@
       <c r="R22" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-    </row>
-    <row r="23" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+    </row>
+    <row r="23" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="51"/>
       <c r="B23" s="32" t="s">
         <v>37</v>
       </c>
@@ -1614,12 +1638,12 @@
       <c r="R23" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-    </row>
-    <row r="24" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+    </row>
+    <row r="24" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="51"/>
       <c r="B24" s="39" t="s">
         <v>38</v>
       </c>
@@ -1641,32 +1665,41 @@
       <c r="S24" s="41">
         <v>18</v>
       </c>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T24" s="40">
+        <v>18</v>
+      </c>
+      <c r="U24" s="40">
+        <v>6</v>
+      </c>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -2030,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2049,36 +2082,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="46"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="54"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="4">
         <v>20170411</v>
       </c>
@@ -2129,7 +2162,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="61" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="32" t="s">
@@ -2154,7 +2187,7 @@
       <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="32" t="s">
         <v>20</v>
       </c>
@@ -2177,7 +2210,7 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="32" t="s">
         <v>21</v>
       </c>
@@ -2200,8 +2233,8 @@
       <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="63" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="38"/>
@@ -2223,8 +2256,8 @@
       <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="38" t="s">
         <v>40</v>
       </c>
@@ -2248,8 +2281,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="50" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="32" t="s">
@@ -2275,7 +2308,7 @@
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="65" t="s">
         <v>39</v>
       </c>
@@ -2299,7 +2332,7 @@
       <c r="R9" s="34"/>
     </row>
     <row r="10" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="66"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -2318,7 +2351,7 @@
       <c r="R10" s="34"/>
     </row>
     <row r="11" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="62"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>

--- a/plans.xlsx
+++ b/plans.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>Plans</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Add email no received email issue</t>
+  </si>
+  <si>
+    <t>Pop up step two api integration</t>
   </si>
 </sst>
 </file>
@@ -533,6 +536,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -580,12 +589,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,11 +894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA145"/>
+  <dimension ref="A1:AA146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+      <selection pane="topRight" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,51 +915,52 @@
     <col min="17" max="17" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="18" max="21" width="0" hidden="1" customWidth="1"/>
     <col min="22" max="24" width="0" style="48" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="52" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="54"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="56"/>
     </row>
     <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="4">
         <v>20170411</v>
       </c>
@@ -1031,7 +1035,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="57" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -1059,8 +1063,8 @@
       <c r="X3" s="43"/>
     </row>
     <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -1089,8 +1093,8 @@
       <c r="X4" s="44"/>
     </row>
     <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="32" t="s">
         <v>6</v>
       </c>
@@ -1119,8 +1123,8 @@
       <c r="X5" s="44"/>
     </row>
     <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="56"/>
-      <c r="B6" s="59" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="61" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -1149,8 +1153,8 @@
       <c r="X6" s="44"/>
     </row>
     <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
@@ -1179,7 +1183,7 @@
       <c r="X7" s="44"/>
     </row>
     <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="29" t="s">
         <v>3</v>
       </c>
@@ -1207,7 +1211,7 @@
       <c r="X8" s="44"/>
     </row>
     <row r="9" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="28" t="s">
         <v>15</v>
       </c>
@@ -1231,7 +1235,7 @@
       <c r="X9" s="45"/>
     </row>
     <row r="10" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1269,15 +1273,18 @@
       <c r="U10" s="12">
         <v>8</v>
       </c>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
       <c r="Y10" s="12">
         <v>8</v>
       </c>
+      <c r="Z10" s="12">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="28" t="s">
         <v>29</v>
       </c>
@@ -1301,10 +1308,11 @@
       <c r="V11" s="45"/>
       <c r="W11" s="45"/>
       <c r="X11" s="45"/>
+      <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="32" t="s">
@@ -1329,10 +1337,11 @@
       <c r="V12" s="44"/>
       <c r="W12" s="44"/>
       <c r="X12" s="44"/>
+      <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="32" t="s">
         <v>14</v>
       </c>
@@ -1355,10 +1364,11 @@
       <c r="V13" s="44"/>
       <c r="W13" s="44"/>
       <c r="X13" s="44"/>
+      <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="56"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="32" t="s">
         <v>22</v>
       </c>
@@ -1380,10 +1390,11 @@
       <c r="V14" s="44"/>
       <c r="W14" s="44"/>
       <c r="X14" s="44"/>
+      <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="32" t="s">
         <v>25</v>
       </c>
@@ -1405,10 +1416,11 @@
       <c r="V15" s="44"/>
       <c r="W15" s="44"/>
       <c r="X15" s="44"/>
+      <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="32" t="s">
         <v>27</v>
       </c>
@@ -1432,10 +1444,11 @@
       <c r="V16" s="44"/>
       <c r="W16" s="44"/>
       <c r="X16" s="44"/>
-    </row>
-    <row r="17" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="60"/>
+      <c r="Z16" s="7"/>
+    </row>
+    <row r="17" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1473,16 +1486,19 @@
       <c r="U17" s="7">
         <v>8</v>
       </c>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
       <c r="Y17" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="56"/>
-      <c r="B18" s="60"/>
+      <c r="Z17" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="32" t="s">
         <v>32</v>
       </c>
@@ -1508,10 +1524,11 @@
       <c r="V18" s="44"/>
       <c r="W18" s="44"/>
       <c r="X18" s="44"/>
-    </row>
-    <row r="19" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="56"/>
-      <c r="B19" s="60"/>
+      <c r="Z18" s="7"/>
+    </row>
+    <row r="19" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="58"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="32" t="s">
         <v>31</v>
       </c>
@@ -1541,10 +1558,11 @@
       <c r="V19" s="44"/>
       <c r="W19" s="44"/>
       <c r="X19" s="44"/>
-    </row>
-    <row r="20" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
-      <c r="B20" s="60"/>
+      <c r="Z19" s="7"/>
+    </row>
+    <row r="20" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="32" t="s">
         <v>24</v>
       </c>
@@ -1565,10 +1583,11 @@
       <c r="V20" s="44"/>
       <c r="W20" s="44"/>
       <c r="X20" s="44"/>
-    </row>
-    <row r="21" spans="1:25" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
-      <c r="B21" s="60"/>
+      <c r="Z20" s="7"/>
+    </row>
+    <row r="21" spans="1:26" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="59"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="38" t="s">
         <v>16</v>
       </c>
@@ -1589,9 +1608,10 @@
       <c r="V21" s="46"/>
       <c r="W21" s="46"/>
       <c r="X21" s="46"/>
-    </row>
-    <row r="22" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="Z21" s="34"/>
+    </row>
+    <row r="22" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="53" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -1616,9 +1636,10 @@
       <c r="V22" s="44"/>
       <c r="W22" s="44"/>
       <c r="X22" s="44"/>
-    </row>
-    <row r="23" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="Z22" s="40"/>
+    </row>
+    <row r="23" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="53"/>
       <c r="B23" s="32" t="s">
         <v>37</v>
       </c>
@@ -1641,12 +1662,14 @@
       <c r="V23" s="44"/>
       <c r="W23" s="44"/>
       <c r="X23" s="44"/>
-    </row>
-    <row r="24" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="39" t="s">
-        <v>38</v>
-      </c>
+      <c r="Z23" s="40"/>
+    </row>
+    <row r="24" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="53"/>
+      <c r="B24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
@@ -1659,47 +1682,72 @@
       <c r="M24" s="41"/>
       <c r="O24" s="42"/>
       <c r="P24" s="42"/>
-      <c r="R24" s="41">
+      <c r="R24" s="41"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Z24" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="53"/>
+      <c r="B25" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="R25" s="41">
         <v>18</v>
       </c>
-      <c r="S24" s="41">
+      <c r="S25" s="41">
         <v>18</v>
       </c>
-      <c r="T24" s="40">
+      <c r="T25" s="40">
         <v>18</v>
       </c>
-      <c r="U24" s="40">
+      <c r="U25" s="40">
         <v>6</v>
       </c>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="40">
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="40">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z25" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -1931,13 +1979,13 @@
       <c r="A108" s="15"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="14"/>
+      <c r="A109" s="15"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="16"/>
+      <c r="A110" s="14"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="15"/>
+      <c r="A111" s="16"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="15"/>
@@ -1946,13 +1994,13 @@
       <c r="A113" s="15"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="17"/>
+      <c r="A114" s="15"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="17"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="15"/>
+      <c r="A116" s="17"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="15"/>
@@ -2003,16 +2051,16 @@
       <c r="A132" s="15"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="16"/>
+      <c r="A133" s="15"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="15"/>
+      <c r="A134" s="16"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="16"/>
+      <c r="A135" s="15"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="15"/>
+      <c r="A136" s="16"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="15"/>
@@ -2039,11 +2087,14 @@
       <c r="A144" s="15"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="16"/>
+      <c r="A145" s="15"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="R1:AA1"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="A3:A21"/>
@@ -2082,36 +2133,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="4">
         <v>20170411</v>
       </c>
@@ -2162,7 +2213,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="63" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="32" t="s">
@@ -2187,7 +2238,7 @@
       <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="32" t="s">
         <v>20</v>
       </c>
@@ -2210,7 +2261,7 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="32" t="s">
         <v>21</v>
       </c>
@@ -2233,8 +2284,8 @@
       <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="65" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="38"/>
@@ -2256,8 +2307,8 @@
       <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="38" t="s">
         <v>40</v>
       </c>
@@ -2281,7 +2332,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="50" t="s">
         <v>30</v>
       </c>
@@ -2308,8 +2359,8 @@
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="65" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="67" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -2332,8 +2383,8 @@
       <c r="R9" s="34"/>
     </row>
     <row r="10" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="68"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -2351,7 +2402,7 @@
       <c r="R10" s="34"/>
     </row>
     <row r="11" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
+      <c r="A11" s="64"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
